--- a/hồ sơ_đợt 2/tổng hợp_cv.xlsx
+++ b/hồ sơ_đợt 2/tổng hợp_cv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="341">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -948,6 +948,126 @@
   </si>
   <si>
     <t>Bùi duy phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành  Chung</t>
+  </si>
+  <si>
+    <t>Đại học Công Nghiệp Hà Nội</t>
+  </si>
+  <si>
+    <t>Công ty CP IPOS.VN</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Liên</t>
+  </si>
+  <si>
+    <t>0985.024.385</t>
+  </si>
+  <si>
+    <t>Công ty TNHH và giải pháp phần mềm Nhật Cường</t>
+  </si>
+  <si>
+    <t>8 triệu đồng</t>
+  </si>
+  <si>
+    <t>Ngô Đình Chấn</t>
+  </si>
+  <si>
+    <t>Học Viện Kỹ Thuật Quân Sự</t>
+  </si>
+  <si>
+    <t>Công ty an ninh mạng Viettel</t>
+  </si>
+  <si>
+    <t>18.000.000</t>
+  </si>
+  <si>
+    <t>Tạ Quang Dũng</t>
+  </si>
+  <si>
+    <t>Học viện Hậu cần</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần VINID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.000.000 </t>
+  </si>
+  <si>
+    <t>Nguyễn Khắc Oánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viện ĐH Mở HN </t>
+  </si>
+  <si>
+    <t>Công ty cổ phần công nghệ Bằng Hữu</t>
+  </si>
+  <si>
+    <t>Vũ Thu Hiền</t>
+  </si>
+  <si>
+    <t>ĐH Kinh Tế Quốc Dân</t>
+  </si>
+  <si>
+    <t>Ngân hàng Bảo Việt</t>
+  </si>
+  <si>
+    <t>30M (net)</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÙY LINH</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>0977342511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐẠI HỌC CÔNG NGHIỆP HÀ NỘI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔNG TY CỔ PHẦN VINSOFTS </t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Toàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0986.866.411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986 </t>
+  </si>
+  <si>
+    <t>Học Viện Ngân hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TNTECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THU HIỀN VŨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0989994432 </t>
+  </si>
+  <si>
+    <t>ĐH Kinh tế quốc dân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỖ VĂN KHIÊM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0976219727 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đại học Bách Khoa Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinh Vân. </t>
+  </si>
+  <si>
+    <t>14/09</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1213,40 +1333,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,9 +1454,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1386,30 +1475,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1464,20 +1541,56 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1761,16 +1874,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="53" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="52" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="23" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="23" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="23" hidden="1" customWidth="1"/>
@@ -1782,7 +1895,7 @@
     <col min="11" max="11" width="14.5703125" style="23" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="29.28515625" style="23" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="23.5703125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="17" style="23" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="23" customWidth="1"/>
     <col min="15" max="15" width="25.85546875" style="23" customWidth="1"/>
     <col min="16" max="16" width="35.28515625" style="23" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="35.28515625" style="23" customWidth="1"/>
@@ -1792,726 +1905,1083 @@
     <col min="21" max="16384" width="29.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="52" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:21" s="51" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="67" t="s">
+      <c r="S1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="55"/>
-    </row>
-    <row r="2" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+    </row>
+    <row r="2" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="68">
+      <c r="D2" s="82"/>
+      <c r="M2" s="63">
         <v>1995</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="64" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="T2" s="82"/>
+    </row>
+    <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="68">
+      <c r="D3" s="82"/>
+      <c r="M3" s="63">
         <v>1996</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="60">
         <v>359497273</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="63" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="T3" s="82"/>
+    </row>
+    <row r="4" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="68">
+      <c r="D4" s="82"/>
+      <c r="M4" s="63">
         <v>1994</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="60">
         <v>978261569</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="T4" s="82"/>
+    </row>
+    <row r="5" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="68">
+      <c r="D5" s="82"/>
+      <c r="M5" s="63">
         <v>1995</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="R5" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="S5" s="73"/>
-    </row>
-    <row r="6" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="S5" s="68"/>
+      <c r="T5" s="82"/>
+    </row>
+    <row r="6" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="M6" s="68">
+      <c r="D6" s="82"/>
+      <c r="M6" s="63">
         <v>1988</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="O6" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="Q6" s="68" t="s">
+      <c r="Q6" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="R6" s="77" t="s">
+      <c r="R6" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="S6" s="73"/>
-    </row>
-    <row r="7" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="S6" s="68"/>
+      <c r="T6" s="82"/>
+    </row>
+    <row r="7" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M7" s="68">
+      <c r="D7" s="82"/>
+      <c r="M7" s="63">
         <v>1982</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="60">
         <v>972803596</v>
       </c>
-      <c r="O7" s="68" t="s">
+      <c r="O7" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="Q7" s="77" t="s">
+      <c r="Q7" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="R7" s="75" t="s">
+      <c r="R7" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="S7" s="68" t="s">
+      <c r="S7" s="63" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="T7" s="82"/>
+    </row>
+    <row r="8" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M8" s="68">
+      <c r="D8" s="82"/>
+      <c r="M8" s="63">
         <v>1989</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="60">
         <v>981464678</v>
       </c>
-      <c r="O8" s="73" t="s">
+      <c r="O8" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="P8" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="Q8" s="68" t="s">
+      <c r="Q8" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="R8" s="77" t="s">
+      <c r="R8" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="S8" s="69" t="s">
+      <c r="S8" s="64" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="T8" s="82"/>
+    </row>
+    <row r="9" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M9" s="68">
+      <c r="D9" s="82"/>
+      <c r="M9" s="63">
         <v>1994</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="60">
         <v>384279440</v>
       </c>
-      <c r="O9" s="68" t="s">
+      <c r="O9" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="Q9" s="68" t="s">
+      <c r="Q9" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="R9" s="75" t="s">
+      <c r="R9" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="S9" s="68" t="s">
+      <c r="S9" s="63" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="86" t="s">
+      <c r="T9" s="82"/>
+    </row>
+    <row r="10" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M10" s="68">
+      <c r="D10" s="82"/>
+      <c r="M10" s="63">
         <v>1990</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="58">
         <v>392216632</v>
       </c>
-      <c r="O10" s="69" t="s">
+      <c r="O10" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="P10" s="60" t="s">
+      <c r="P10" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" s="68" t="s">
+      <c r="Q10" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="R10" s="75" t="s">
+      <c r="R10" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="S10" s="73"/>
-    </row>
-    <row r="11" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="S10" s="68"/>
+      <c r="T10" s="82"/>
+    </row>
+    <row r="11" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="68">
+      <c r="D11" s="82"/>
+      <c r="M11" s="63">
         <v>1984</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="60">
         <v>912640699</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="Q11" s="72" t="s">
+      <c r="Q11" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="R11" s="75" t="s">
+      <c r="R11" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="S11" s="73"/>
-    </row>
-    <row r="12" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="S11" s="68"/>
+      <c r="T11" s="82"/>
+    </row>
+    <row r="12" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M12" s="68">
+      <c r="D12" s="82"/>
+      <c r="M12" s="63">
         <v>1995</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="60">
         <v>966986495</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="P12" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="Q12" s="68" t="s">
+      <c r="Q12" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="R12" s="75" t="s">
+      <c r="R12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="68" t="s">
+      <c r="S12" s="63" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="T12" s="82"/>
+    </row>
+    <row r="13" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M13" s="70">
+      <c r="D13" s="82"/>
+      <c r="M13" s="65">
         <v>1984</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="59">
         <v>978827374</v>
       </c>
-      <c r="O13" s="70" t="s">
+      <c r="O13" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="P13" s="64" t="s">
+      <c r="P13" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="Q13" s="78" t="s">
+      <c r="Q13" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="R13" s="79" t="s">
+      <c r="R13" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S13" s="73"/>
-    </row>
-    <row r="14" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="S13" s="68"/>
+      <c r="T13" s="82"/>
+    </row>
+    <row r="14" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M14" s="68">
+      <c r="D14" s="82"/>
+      <c r="M14" s="63">
         <v>1986</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="60">
         <v>983198212</v>
       </c>
-      <c r="O14" s="68" t="s">
+      <c r="O14" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P14" s="62" t="s">
+      <c r="P14" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="Q14" s="68" t="s">
+      <c r="Q14" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="R14" s="75" t="s">
+      <c r="R14" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="S14" s="68">
+      <c r="S14" s="63">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
+      <c r="T14" s="82"/>
+    </row>
+    <row r="15" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="93" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="M15" s="71">
+      <c r="D15" s="82"/>
+      <c r="M15" s="66">
         <v>1988</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="61">
         <v>868298894</v>
       </c>
-      <c r="O15" s="68" t="s">
+      <c r="O15" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P15" s="63" t="s">
+      <c r="P15" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="Q15" s="69" t="s">
+      <c r="Q15" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="R15" s="80" t="s">
+      <c r="R15" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="S15" s="73"/>
-    </row>
-    <row r="16" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="S15" s="68"/>
+      <c r="T15" s="82"/>
+    </row>
+    <row r="16" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="M16" s="68">
+      <c r="D16" s="82"/>
+      <c r="M16" s="63">
         <v>1992</v>
       </c>
-      <c r="N16" s="62">
+      <c r="N16" s="60">
         <v>986005213</v>
       </c>
-      <c r="O16" s="69" t="s">
+      <c r="O16" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="62" t="s">
+      <c r="P16" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="Q16" s="77" t="s">
+      <c r="Q16" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="R16" s="75" t="s">
+      <c r="R16" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="S16" s="81">
+      <c r="S16" s="76">
         <v>6400000</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
+      <c r="T16" s="82"/>
+    </row>
+    <row r="17" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="M17" s="73" t="s">
+      <c r="D17" s="82"/>
+      <c r="M17" s="68" t="s">
         <v>220</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="O17" s="73" t="s">
+      <c r="O17" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="Q17" s="73" t="s">
+      <c r="Q17" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="R17" s="82" t="s">
+      <c r="R17" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="S17" s="73"/>
-    </row>
-    <row r="18" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
+      <c r="S17" s="68"/>
+      <c r="T17" s="82"/>
+    </row>
+    <row r="18" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="73" t="s">
+      <c r="D18" s="82"/>
+      <c r="M18" s="68" t="s">
         <v>185</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="O18" s="73" t="s">
+      <c r="O18" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="Q18" s="73" t="s">
+      <c r="Q18" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="R18" s="82" t="s">
+      <c r="R18" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="S18" s="73" t="s">
+      <c r="S18" s="68" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
+      <c r="T18" s="82"/>
+    </row>
+    <row r="19" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="68">
+      <c r="D19" s="82"/>
+      <c r="M19" s="63">
         <v>1992</v>
       </c>
-      <c r="N19" s="58" t="s">
+      <c r="N19" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="O19" s="68" t="s">
+      <c r="O19" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="Q19" s="68" t="s">
+      <c r="Q19" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="R19" s="83" t="s">
+      <c r="R19" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="S19" s="68" t="s">
+      <c r="S19" s="63" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
+      <c r="T19" s="82"/>
+    </row>
+    <row r="20" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="M20" s="73"/>
+      <c r="D20" s="82"/>
+      <c r="M20" s="68"/>
       <c r="N20" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="O20" s="68" t="s">
+      <c r="O20" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="P20" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="Q20" s="73" t="s">
+      <c r="Q20" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="R20" s="82" t="s">
+      <c r="R20" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="S20" s="73"/>
-    </row>
-    <row r="21" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89" t="s">
+      <c r="S20" s="68"/>
+      <c r="T20" s="82"/>
+    </row>
+    <row r="21" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="M21" s="68">
+      <c r="D21" s="82"/>
+      <c r="M21" s="63">
         <v>1986</v>
       </c>
-      <c r="N21" s="56">
+      <c r="N21" s="55">
         <v>933921186</v>
       </c>
-      <c r="O21" s="73" t="s">
+      <c r="O21" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P21" s="56" t="s">
+      <c r="P21" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="Q21" s="77" t="s">
+      <c r="Q21" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="R21" s="75" t="s">
+      <c r="R21" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="S21" s="73"/>
-    </row>
-    <row r="22" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
+      <c r="S21" s="68"/>
+      <c r="T21" s="82"/>
+    </row>
+    <row r="22" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="M22" s="73"/>
+      <c r="D22" s="82"/>
+      <c r="M22" s="68"/>
       <c r="N22" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="O22" s="73"/>
-      <c r="P22" s="23" t="s">
+      <c r="O22" s="68"/>
+      <c r="P22" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="73"/>
-    </row>
-    <row r="23" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86" t="s">
+      <c r="Q22" s="68"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="82"/>
+    </row>
+    <row r="23" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="M23" s="68">
+      <c r="D23" s="82"/>
+      <c r="M23" s="63">
         <v>1979</v>
       </c>
-      <c r="N23" s="62">
+      <c r="N23" s="60">
         <v>904307168</v>
       </c>
-      <c r="O23" s="73" t="s">
+      <c r="O23" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P23" s="62" t="s">
+      <c r="P23" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="Q23" s="68" t="s">
+      <c r="Q23" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="R23" s="75" t="s">
+      <c r="R23" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="S23" s="73"/>
-    </row>
-    <row r="24" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="S23" s="68"/>
+      <c r="T23" s="82"/>
+    </row>
+    <row r="24" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="M24" s="68">
+      <c r="D24" s="82"/>
+      <c r="M24" s="63">
         <v>1985</v>
       </c>
-      <c r="N24" s="56" t="s">
+      <c r="N24" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="O24" s="68" t="s">
+      <c r="O24" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="P24" s="63" t="s">
+      <c r="P24" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="Q24" s="68" t="s">
+      <c r="Q24" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="R24" s="84" t="s">
+      <c r="R24" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="S24" s="73"/>
-    </row>
-    <row r="25" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
+      <c r="S24" s="68"/>
+      <c r="T24" s="82"/>
+    </row>
+    <row r="25" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="M25" s="68">
+      <c r="D25" s="82"/>
+      <c r="M25" s="63">
         <v>1987</v>
       </c>
-      <c r="N25" s="62">
+      <c r="N25" s="60">
         <v>985138622</v>
       </c>
-      <c r="O25" s="68" t="s">
+      <c r="O25" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P25" s="66" t="s">
+      <c r="P25" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="Q25" s="68" t="s">
+      <c r="Q25" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="R25" s="75" t="s">
+      <c r="R25" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="S25" s="68" t="s">
+      <c r="S25" s="63" t="s">
         <v>275</v>
+      </c>
+      <c r="T25" s="82"/>
+    </row>
+    <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="M26" s="60">
+        <v>1989</v>
+      </c>
+      <c r="N26" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="O26" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="R26" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="T26" s="82"/>
+    </row>
+    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="82"/>
+      <c r="M27" s="55">
+        <v>1997</v>
+      </c>
+      <c r="N27" s="60">
+        <v>354435225</v>
+      </c>
+      <c r="O27" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="R27" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="S27" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="T27" s="82"/>
+    </row>
+    <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="M28" s="55">
+        <v>1994</v>
+      </c>
+      <c r="N28" s="60">
+        <v>989920950</v>
+      </c>
+      <c r="O28" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="R28" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="S28" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="T28" s="82"/>
+    </row>
+    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="82"/>
+      <c r="M29" s="55">
+        <v>1991</v>
+      </c>
+      <c r="N29" s="60">
+        <v>363423806</v>
+      </c>
+      <c r="O29" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="R29" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="S29" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="T29" s="82"/>
+    </row>
+    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="82"/>
+      <c r="M30" s="55">
+        <v>1980</v>
+      </c>
+      <c r="N30" s="60">
+        <v>912808420</v>
+      </c>
+      <c r="O30" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="R30" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="T30" s="82"/>
+    </row>
+    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="M31" s="55">
+        <v>1984</v>
+      </c>
+      <c r="N31" s="60">
+        <v>989994432</v>
+      </c>
+      <c r="O31" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="R31" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="S31" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="T31" s="82"/>
+    </row>
+    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="81"/>
+      <c r="C32" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="M32" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="O32" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="T32" s="82"/>
+    </row>
+    <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="M33" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="O33" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="T33" s="82"/>
+    </row>
+    <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="M34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="O34" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="T34" s="82"/>
+    </row>
+    <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="82"/>
+      <c r="M35" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="O35" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="T35" s="82" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/hồ sơ_đợt 2/tổng hợp_cv.xlsx
+++ b/hồ sơ_đợt 2/tổng hợp_cv.xlsx
@@ -1876,8 +1876,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1895,7 @@
     <col min="11" max="11" width="14.5703125" style="23" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="29.28515625" style="23" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="23.5703125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="17" style="23" customWidth="1"/>
+    <col min="14" max="14" width="17" style="23" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="25.85546875" style="23" customWidth="1"/>
     <col min="16" max="16" width="35.28515625" style="23" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="35.28515625" style="23" customWidth="1"/>
@@ -2097,29 +2097,29 @@
         <v>281</v>
       </c>
       <c r="B6" s="81"/>
-      <c r="C6" s="68" t="s">
-        <v>198</v>
+      <c r="C6" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="82"/>
-      <c r="M6" s="63">
-        <v>1988</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="O6" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="P6" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q6" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="R6" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="S6" s="68"/>
+      <c r="M6" s="55">
+        <v>1997</v>
+      </c>
+      <c r="N6" s="60">
+        <v>354435225</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="R6" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>307</v>
+      </c>
       <c r="T6" s="82"/>
     </row>
     <row r="7" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,30 +2127,28 @@
         <v>282</v>
       </c>
       <c r="B7" s="81"/>
-      <c r="C7" s="68" t="s">
-        <v>209</v>
+      <c r="C7" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="82"/>
-      <c r="M7" s="63">
-        <v>1982</v>
+      <c r="M7" s="55">
+        <v>1984</v>
       </c>
       <c r="N7" s="60">
-        <v>972803596</v>
-      </c>
-      <c r="O7" s="63" t="s">
+        <v>989994432</v>
+      </c>
+      <c r="O7" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P7" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q7" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="R7" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="63" t="s">
-        <v>214</v>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>322</v>
       </c>
       <c r="T7" s="82"/>
     </row>
@@ -2159,30 +2157,25 @@
         <v>283</v>
       </c>
       <c r="B8" s="81"/>
-      <c r="C8" s="68" t="s">
-        <v>209</v>
+      <c r="C8" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="82"/>
-      <c r="M8" s="63">
-        <v>1989</v>
-      </c>
-      <c r="N8" s="60">
-        <v>981464678</v>
+      <c r="M8" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="O8" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q8" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="R8" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>234</v>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="T8" s="82"/>
     </row>
@@ -2191,59 +2184,54 @@
         <v>284</v>
       </c>
       <c r="B9" s="81"/>
-      <c r="C9" s="68" t="s">
-        <v>209</v>
+      <c r="C9" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="82"/>
-      <c r="M9" s="63">
-        <v>1994</v>
-      </c>
-      <c r="N9" s="60">
-        <v>384279440</v>
-      </c>
-      <c r="O9" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="P9" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q9" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="R9" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>246</v>
+      <c r="M9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="O9" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="T9" s="82"/>
     </row>
-    <row r="10" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
         <v>285</v>
       </c>
       <c r="B10" s="81"/>
       <c r="C10" s="68" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D10" s="82"/>
       <c r="M10" s="63">
-        <v>1990</v>
-      </c>
-      <c r="N10" s="58">
-        <v>392216632</v>
-      </c>
-      <c r="O10" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="P10" s="87" t="s">
-        <v>248</v>
+        <v>1988</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="86" t="s">
+        <v>199</v>
       </c>
       <c r="Q10" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="R10" s="70" t="s">
-        <v>250</v>
+        <v>201</v>
+      </c>
+      <c r="R10" s="72" t="s">
+        <v>202</v>
       </c>
       <c r="S10" s="68"/>
       <c r="T10" s="82"/>
@@ -2258,24 +2246,26 @@
       </c>
       <c r="D11" s="82"/>
       <c r="M11" s="63">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="N11" s="60">
-        <v>912640699</v>
+        <v>972803596</v>
       </c>
       <c r="O11" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="P11" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q11" s="67" t="s">
-        <v>261</v>
+        <v>210</v>
+      </c>
+      <c r="P11" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="72" t="s">
+        <v>212</v>
       </c>
       <c r="R11" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="S11" s="68"/>
+        <v>213</v>
+      </c>
+      <c r="S11" s="63" t="s">
+        <v>214</v>
+      </c>
       <c r="T11" s="82"/>
     </row>
     <row r="12" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,25 +2278,25 @@
       </c>
       <c r="D12" s="82"/>
       <c r="M12" s="63">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="N12" s="60">
-        <v>966986495</v>
-      </c>
-      <c r="O12" s="63" t="s">
-        <v>200</v>
+        <v>981464678</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>210</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="R12" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="63" t="s">
-        <v>97</v>
+        <v>237</v>
+      </c>
+      <c r="R12" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="64" t="s">
+        <v>234</v>
       </c>
       <c r="T12" s="82"/>
     </row>
@@ -2319,28 +2309,30 @@
         <v>209</v>
       </c>
       <c r="D13" s="82"/>
-      <c r="M13" s="65">
-        <v>1984</v>
-      </c>
-      <c r="N13" s="59">
-        <v>978827374</v>
-      </c>
-      <c r="O13" s="65" t="s">
+      <c r="M13" s="63">
+        <v>1994</v>
+      </c>
+      <c r="N13" s="60">
+        <v>384279440</v>
+      </c>
+      <c r="O13" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P13" s="89" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q13" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="R13" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="68"/>
+      <c r="P13" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="R13" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="S13" s="63" t="s">
+        <v>246</v>
+      </c>
       <c r="T13" s="82"/>
     </row>
-    <row r="14" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="73" t="s">
         <v>289</v>
       </c>
@@ -2350,26 +2342,24 @@
       </c>
       <c r="D14" s="82"/>
       <c r="M14" s="63">
-        <v>1986</v>
-      </c>
-      <c r="N14" s="60">
-        <v>983198212</v>
-      </c>
-      <c r="O14" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="P14" s="84" t="s">
-        <v>266</v>
+        <v>1990</v>
+      </c>
+      <c r="N14" s="58">
+        <v>392216632</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="87" t="s">
+        <v>248</v>
       </c>
       <c r="Q14" s="63" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="R14" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="S14" s="63">
-        <v>15000000</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="S14" s="68"/>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2381,23 +2371,23 @@
         <v>209</v>
       </c>
       <c r="D15" s="82"/>
-      <c r="M15" s="66">
-        <v>1988</v>
-      </c>
-      <c r="N15" s="61">
-        <v>868298894</v>
+      <c r="M15" s="63">
+        <v>1984</v>
+      </c>
+      <c r="N15" s="60">
+        <v>912640699</v>
       </c>
       <c r="O15" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P15" s="90" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q15" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="R15" s="75" t="s">
-        <v>271</v>
+      <c r="P15" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q15" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="R15" s="70" t="s">
+        <v>262</v>
       </c>
       <c r="S15" s="68"/>
       <c r="T15" s="82"/>
@@ -2408,29 +2398,29 @@
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="68" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D16" s="82"/>
       <c r="M16" s="63">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="N16" s="60">
-        <v>986005213</v>
-      </c>
-      <c r="O16" s="64" t="s">
-        <v>179</v>
+        <v>966986495</v>
+      </c>
+      <c r="O16" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q16" s="72" t="s">
-        <v>182</v>
+        <v>263</v>
+      </c>
+      <c r="Q16" s="63" t="s">
+        <v>264</v>
       </c>
       <c r="R16" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="S16" s="76">
-        <v>6400000</v>
+        <v>8</v>
+      </c>
+      <c r="S16" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="T16" s="82"/>
     </row>
@@ -2440,26 +2430,26 @@
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="68" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D17" s="82"/>
-      <c r="M17" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="O17" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="P17" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q17" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="R17" s="77" t="s">
-        <v>224</v>
+      <c r="M17" s="65">
+        <v>1984</v>
+      </c>
+      <c r="N17" s="59">
+        <v>978827374</v>
+      </c>
+      <c r="O17" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q17" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="R17" s="74" t="s">
+        <v>8</v>
       </c>
       <c r="S17" s="68"/>
       <c r="T17" s="82"/>
@@ -2470,29 +2460,29 @@
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="68" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D18" s="82"/>
-      <c r="M18" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="O18" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="P18" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q18" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="R18" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="S18" s="68" t="s">
-        <v>191</v>
+      <c r="M18" s="63">
+        <v>1986</v>
+      </c>
+      <c r="N18" s="60">
+        <v>983198212</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="P18" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q18" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="R18" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="S18" s="63">
+        <v>15000000</v>
       </c>
       <c r="T18" s="82"/>
     </row>
@@ -2502,30 +2492,28 @@
       </c>
       <c r="B19" s="81"/>
       <c r="C19" s="68" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D19" s="82"/>
-      <c r="M19" s="63">
-        <v>1992</v>
-      </c>
-      <c r="N19" s="57" t="s">
-        <v>203</v>
+      <c r="M19" s="66">
+        <v>1988</v>
+      </c>
+      <c r="N19" s="61">
+        <v>868298894</v>
       </c>
       <c r="O19" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="P19" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q19" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="R19" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="S19" s="63" t="s">
-        <v>208</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P19" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q19" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="R19" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="S19" s="68"/>
       <c r="T19" s="82"/>
     </row>
     <row r="20" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,26 +2522,25 @@
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="68" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D20" s="82"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="O20" s="63" t="s">
+      <c r="M20" s="60">
+        <v>1989</v>
+      </c>
+      <c r="N20" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="O20" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P20" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="R20" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="S20" s="68"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="R20" s="60" t="s">
+        <v>303</v>
+      </c>
       <c r="T20" s="82"/>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,28 +2549,25 @@
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="68" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D21" s="82"/>
-      <c r="M21" s="63">
-        <v>1986</v>
-      </c>
-      <c r="N21" s="55">
-        <v>933921186</v>
+      <c r="M21" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="O21" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P21" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q21" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="R21" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="S21" s="68"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>327</v>
+      </c>
       <c r="T21" s="82"/>
     </row>
     <row r="22" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,21 +2576,28 @@
       </c>
       <c r="B22" s="81"/>
       <c r="C22" s="68" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D22" s="82"/>
-      <c r="M22" s="68"/>
+      <c r="M22" s="23" t="s">
+        <v>220</v>
+      </c>
       <c r="N22" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="O22" s="68"/>
-      <c r="P22" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="82"/>
+        <v>337</v>
+      </c>
+      <c r="O22" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="T22" s="82" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73" t="s">
@@ -2614,28 +2605,30 @@
       </c>
       <c r="B23" s="81"/>
       <c r="C23" s="68" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D23" s="82"/>
       <c r="M23" s="63">
-        <v>1979</v>
+        <v>1992</v>
       </c>
       <c r="N23" s="60">
-        <v>904307168</v>
-      </c>
-      <c r="O23" s="68" t="s">
-        <v>210</v>
+        <v>986005213</v>
+      </c>
+      <c r="O23" s="64" t="s">
+        <v>179</v>
       </c>
       <c r="P23" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q23" s="63" t="s">
-        <v>230</v>
+        <v>180</v>
+      </c>
+      <c r="Q23" s="72" t="s">
+        <v>182</v>
       </c>
       <c r="R23" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="S23" s="68"/>
+        <v>183</v>
+      </c>
+      <c r="S23" s="76">
+        <v>6400000</v>
+      </c>
       <c r="T23" s="82"/>
     </row>
     <row r="24" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,26 +2637,26 @@
       </c>
       <c r="B24" s="81"/>
       <c r="C24" s="68" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D24" s="82"/>
-      <c r="M24" s="63">
-        <v>1985</v>
-      </c>
-      <c r="N24" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="O24" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="P24" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q24" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="R24" s="79" t="s">
-        <v>243</v>
+      <c r="M24" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P24" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q24" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="R24" s="77" t="s">
+        <v>224</v>
       </c>
       <c r="S24" s="68"/>
       <c r="T24" s="82"/>
@@ -2674,90 +2667,93 @@
       </c>
       <c r="B25" s="81"/>
       <c r="C25" s="68" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D25" s="82"/>
-      <c r="M25" s="63">
-        <v>1987</v>
-      </c>
-      <c r="N25" s="60">
-        <v>985138622</v>
-      </c>
-      <c r="O25" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="P25" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q25" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="R25" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="S25" s="63" t="s">
-        <v>275</v>
+      <c r="M25" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q25" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="R25" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="S25" s="68" t="s">
+        <v>191</v>
       </c>
       <c r="T25" s="82"/>
     </row>
-    <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
         <v>301</v>
       </c>
       <c r="B26" s="81"/>
       <c r="C26" s="68" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D26" s="82"/>
-      <c r="M26" s="60">
-        <v>1989</v>
-      </c>
-      <c r="N26" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="O26" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="96" t="s">
-        <v>302</v>
-      </c>
-      <c r="R26" s="60" t="s">
-        <v>303</v>
+      <c r="M26" s="63">
+        <v>1992</v>
+      </c>
+      <c r="N26" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q26" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="R26" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="S26" s="63" t="s">
+        <v>208</v>
       </c>
       <c r="T26" s="82"/>
     </row>
-    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>304</v>
       </c>
       <c r="B27" s="81"/>
-      <c r="C27" s="23" t="s">
-        <v>34</v>
+      <c r="C27" s="68" t="s">
+        <v>215</v>
       </c>
       <c r="D27" s="82"/>
-      <c r="M27" s="55">
-        <v>1997</v>
-      </c>
-      <c r="N27" s="60">
-        <v>354435225</v>
-      </c>
-      <c r="O27" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="R27" s="96" t="s">
-        <v>306</v>
-      </c>
-      <c r="S27" s="60" t="s">
-        <v>307</v>
-      </c>
+      <c r="M27" s="68"/>
+      <c r="N27" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="P27" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q27" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="R27" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="S27" s="68"/>
       <c r="T27" s="82"/>
     </row>
-    <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>308</v>
       </c>
@@ -2766,25 +2762,25 @@
         <v>215</v>
       </c>
       <c r="D28" s="82"/>
-      <c r="M28" s="55">
-        <v>1994</v>
-      </c>
-      <c r="N28" s="60">
-        <v>989920950</v>
+      <c r="M28" s="63">
+        <v>1986</v>
+      </c>
+      <c r="N28" s="55">
+        <v>933921186</v>
       </c>
       <c r="O28" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="R28" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="S28" s="23" t="s">
-        <v>311</v>
-      </c>
+      <c r="P28" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="R28" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="S28" s="68"/>
       <c r="T28" s="82"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -2796,25 +2792,17 @@
         <v>215</v>
       </c>
       <c r="D29" s="82"/>
-      <c r="M29" s="55">
-        <v>1991</v>
-      </c>
-      <c r="N29" s="60">
-        <v>363423806</v>
-      </c>
-      <c r="O29" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="R29" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="S29" s="60" t="s">
-        <v>315</v>
-      </c>
+      <c r="M29" s="68"/>
+      <c r="N29" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="68"/>
       <c r="T29" s="82"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -2823,24 +2811,27 @@
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="68" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D30" s="82"/>
       <c r="M30" s="55">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="N30" s="60">
-        <v>912808420</v>
+        <v>989920950</v>
       </c>
       <c r="O30" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P30" s="82"/>
       <c r="Q30" s="55" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="R30" s="60" t="s">
-        <v>318</v>
+        <v>310</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>311</v>
       </c>
       <c r="T30" s="82"/>
     </row>
@@ -2849,28 +2840,28 @@
         <v>319</v>
       </c>
       <c r="B31" s="81"/>
-      <c r="C31" s="23" t="s">
-        <v>34</v>
+      <c r="C31" s="68" t="s">
+        <v>215</v>
       </c>
       <c r="D31" s="82"/>
       <c r="M31" s="55">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="N31" s="60">
-        <v>989994432</v>
+        <v>363423806</v>
       </c>
       <c r="O31" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P31" s="82"/>
       <c r="Q31" s="55" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R31" s="60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S31" s="60" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="T31" s="82"/>
     </row>
@@ -2880,25 +2871,28 @@
       </c>
       <c r="B32" s="81"/>
       <c r="C32" s="68" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D32" s="82"/>
-      <c r="M32" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>325</v>
+      <c r="M32" s="63">
+        <v>1979</v>
+      </c>
+      <c r="N32" s="60">
+        <v>904307168</v>
       </c>
       <c r="O32" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>327</v>
-      </c>
+      <c r="P32" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="R32" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="S32" s="68"/>
       <c r="T32" s="82"/>
     </row>
     <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -2906,52 +2900,60 @@
         <v>328</v>
       </c>
       <c r="B33" s="81"/>
-      <c r="C33" s="23" t="s">
-        <v>34</v>
+      <c r="C33" s="68" t="s">
+        <v>228</v>
       </c>
       <c r="D33" s="82"/>
-      <c r="M33" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="N33" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="O33" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="R33" s="22" t="s">
-        <v>332</v>
-      </c>
+      <c r="M33" s="63">
+        <v>1985</v>
+      </c>
+      <c r="N33" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="P33" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q33" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="R33" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="S33" s="68"/>
       <c r="T33" s="82"/>
     </row>
-    <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>333</v>
       </c>
       <c r="B34" s="81"/>
-      <c r="C34" s="23" t="s">
-        <v>34</v>
+      <c r="C34" s="68" t="s">
+        <v>228</v>
       </c>
       <c r="D34" s="82"/>
-      <c r="M34" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="N34" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="O34" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="R34" s="22" t="s">
-        <v>321</v>
+      <c r="M34" s="63">
+        <v>1987</v>
+      </c>
+      <c r="N34" s="60">
+        <v>985138622</v>
+      </c>
+      <c r="O34" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="P34" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q34" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="R34" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="S34" s="63" t="s">
+        <v>275</v>
       </c>
       <c r="T34" s="82"/>
     </row>
@@ -2961,28 +2963,26 @@
       </c>
       <c r="B35" s="81"/>
       <c r="C35" s="68" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D35" s="82"/>
-      <c r="M35" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>337</v>
+      <c r="M35" s="55">
+        <v>1980</v>
+      </c>
+      <c r="N35" s="60">
+        <v>912808420</v>
       </c>
       <c r="O35" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P35" s="82"/>
-      <c r="Q35" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="R35" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="T35" s="82" t="s">
-        <v>340</v>
-      </c>
+      <c r="Q35" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="R35" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="T35" s="82"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:V1">
@@ -2991,14 +2991,14 @@
         <filter val="Có"/>
       </filters>
     </filterColumn>
-    <sortState ref="B2:W25">
+    <sortState ref="B2:U35">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="P24" r:id="rId1" display="mailto:luuhaidlu@gmail.com"/>
-    <hyperlink ref="P15" r:id="rId2" display="mailto:phamviethai1988@gmail.com"/>
-    <hyperlink ref="P25" r:id="rId3"/>
+    <hyperlink ref="P33" r:id="rId1" display="mailto:luuhaidlu@gmail.com"/>
+    <hyperlink ref="P19" r:id="rId2" display="mailto:phamviethai1988@gmail.com"/>
+    <hyperlink ref="P34" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/hồ sơ_đợt 2/tổng hợp_cv.xlsx
+++ b/hồ sơ_đợt 2/tổng hợp_cv.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$V$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="390">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -1068,6 +1068,153 @@
   </si>
   <si>
     <t>14/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nguyên phạm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phamnguyen271196@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0386139836 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996 </t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Power UNIVERSITY </t>
+  </si>
+  <si>
+    <t>USOL COMPANY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Ngọc Đức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnduc2111@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0372490563 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANOI OPEN UNIVERSITY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTQ SOLUTION </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doãn Hồng Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1977 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0902 108 122 </t>
+  </si>
+  <si>
+    <t>dhhieudh@gmail.com</t>
+  </si>
+  <si>
+    <t>Đại học Bách khoa Hà nội</t>
+  </si>
+  <si>
+    <t>Tập Đoàn Hòa Bình – TTTM V+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN ĐỨC THỊNH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990 </t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH DOANH &amp; CÔNG NGHỆ HÀ NỘI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0977 997 582 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thinhnd178@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">danhlongit@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0977377083 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinh University </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vietcombank </t>
+  </si>
+  <si>
+    <t>Hà Đức Quyết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haducquyet@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">094 666 9698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanoi Open University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN DUY TUẤN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0988.805.532 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tranduytuan27@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công Nghệ Bưu Chính Viễn Thông </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samsung Electronic Viet Nam Thai Nguyen</t>
+  </si>
+  <si>
+    <t>HOÀNG XUÂN CƯỜNG</t>
+  </si>
+  <si>
+    <t>Tập đoàn Bảo Việt</t>
+  </si>
+  <si>
+    <t>cuonghoangce@gmail.com</t>
+  </si>
+  <si>
+    <t>Đại học Bách Khoa Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Van Tuan </t>
+  </si>
+  <si>
+    <t>84 962 231 165</t>
+  </si>
+  <si>
+    <t>tuanlvse04092@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPT University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOFT - FPT COMPANY </t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,6 +1739,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1874,10 +2022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1895,10 +2043,9 @@
     <col min="11" max="11" width="14.5703125" style="23" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="29.28515625" style="23" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="23.5703125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="17" style="23" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="23" customWidth="1"/>
     <col min="15" max="15" width="25.85546875" style="23" customWidth="1"/>
-    <col min="16" max="16" width="35.28515625" style="23" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="35.28515625" style="23" customWidth="1"/>
+    <col min="16" max="17" width="35.28515625" style="23" customWidth="1"/>
     <col min="18" max="18" width="40.5703125" style="22" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" style="23" customWidth="1"/>
     <col min="20" max="20" width="18.5703125" style="23" customWidth="1"/>
@@ -2983,6 +3130,234 @@
         <v>318</v>
       </c>
       <c r="T35" s="82"/>
+    </row>
+    <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="O36" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="O37" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="R37" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="R38" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="O39" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="O41" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="33" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="O42" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P42" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q42" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="R42" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="M43" s="97">
+        <v>1988</v>
+      </c>
+      <c r="N43" s="12">
+        <v>946622333</v>
+      </c>
+      <c r="O43" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="O44" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="P44" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:V1">

--- a/hồ sơ_đợt 2/tổng hợp_cv.xlsx
+++ b/hồ sơ_đợt 2/tổng hợp_cv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="391">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -1067,9 +1067,6 @@
     <t xml:space="preserve">Tinh Vân. </t>
   </si>
   <si>
-    <t>14/09</t>
-  </si>
-  <si>
     <t xml:space="preserve">nguyên phạm </t>
   </si>
   <si>
@@ -1215,6 +1212,12 @@
   </si>
   <si>
     <t xml:space="preserve">FSOFT - FPT COMPANY </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Loại</t>
   </si>
 </sst>
 </file>
@@ -2024,8 +2027,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2051,7 @@
     <col min="16" max="17" width="35.28515625" style="23" customWidth="1"/>
     <col min="18" max="18" width="40.5703125" style="22" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" style="23" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="23" customWidth="1"/>
+    <col min="20" max="20" width="36.140625" style="23" customWidth="1"/>
     <col min="21" max="16384" width="29.140625" style="23"/>
   </cols>
   <sheetData>
@@ -2110,7 +2113,9 @@
       <c r="S1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="54"/>
+      <c r="T1" s="54" t="s">
+        <v>389</v>
+      </c>
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2143,7 +2148,9 @@
       <c r="S2" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="82"/>
+      <c r="T2" s="82" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
@@ -2257,7 +2264,9 @@
       <c r="O6" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="P6" s="82"/>
+      <c r="P6" s="86" t="s">
+        <v>199</v>
+      </c>
       <c r="Q6" s="55" t="s">
         <v>256</v>
       </c>
@@ -2267,7 +2276,9 @@
       <c r="S6" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="T6" s="82"/>
+      <c r="T6" s="82" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
@@ -2287,7 +2298,9 @@
       <c r="O7" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P7" s="82"/>
+      <c r="P7" s="84" t="s">
+        <v>211</v>
+      </c>
       <c r="Q7" s="55" t="s">
         <v>320</v>
       </c>
@@ -2317,7 +2330,9 @@
       <c r="O8" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="82"/>
+      <c r="P8" s="84" t="s">
+        <v>232</v>
+      </c>
       <c r="Q8" s="23" t="s">
         <v>331</v>
       </c>
@@ -2344,7 +2359,9 @@
       <c r="O9" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P9" s="82"/>
+      <c r="P9" s="84" t="s">
+        <v>244</v>
+      </c>
       <c r="Q9" s="23" t="s">
         <v>335</v>
       </c>
@@ -2353,7 +2370,7 @@
       </c>
       <c r="T9" s="82"/>
     </row>
-    <row r="10" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>285</v>
       </c>
@@ -2371,8 +2388,8 @@
       <c r="O10" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P10" s="86" t="s">
-        <v>199</v>
+      <c r="P10" s="87" t="s">
+        <v>248</v>
       </c>
       <c r="Q10" s="63" t="s">
         <v>201</v>
@@ -2381,7 +2398,9 @@
         <v>202</v>
       </c>
       <c r="S10" s="68"/>
-      <c r="T10" s="82"/>
+      <c r="T10" s="82" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
@@ -2401,8 +2420,8 @@
       <c r="O11" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="P11" s="84" t="s">
-        <v>211</v>
+      <c r="P11" s="88" t="s">
+        <v>260</v>
       </c>
       <c r="Q11" s="72" t="s">
         <v>212</v>
@@ -2434,7 +2453,7 @@
         <v>210</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="63" t="s">
         <v>237</v>
@@ -2465,8 +2484,8 @@
       <c r="O13" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P13" s="84" t="s">
-        <v>244</v>
+      <c r="P13" s="89" t="s">
+        <v>265</v>
       </c>
       <c r="Q13" s="63" t="s">
         <v>226</v>
@@ -2497,8 +2516,8 @@
       <c r="O14" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="P14" s="87" t="s">
-        <v>248</v>
+      <c r="P14" s="84" t="s">
+        <v>266</v>
       </c>
       <c r="Q14" s="63" t="s">
         <v>249</v>
@@ -2507,7 +2526,9 @@
         <v>250</v>
       </c>
       <c r="S14" s="68"/>
-      <c r="T14" s="82"/>
+      <c r="T14" s="82" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="s">
@@ -2527,8 +2548,8 @@
       <c r="O15" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P15" s="88" t="s">
-        <v>260</v>
+      <c r="P15" s="90" t="s">
+        <v>269</v>
       </c>
       <c r="Q15" s="67" t="s">
         <v>261</v>
@@ -2537,7 +2558,9 @@
         <v>262</v>
       </c>
       <c r="S15" s="68"/>
-      <c r="T15" s="82"/>
+      <c r="T15" s="82" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
@@ -2558,7 +2581,7 @@
         <v>200</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="63" t="s">
         <v>264</v>
@@ -2589,8 +2612,8 @@
       <c r="O17" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="P17" s="89" t="s">
-        <v>265</v>
+      <c r="P17" s="82" t="s">
+        <v>222</v>
       </c>
       <c r="Q17" s="73" t="s">
         <v>201</v>
@@ -2619,8 +2642,8 @@
       <c r="O18" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P18" s="84" t="s">
-        <v>266</v>
+      <c r="P18" s="82" t="s">
+        <v>188</v>
       </c>
       <c r="Q18" s="63" t="s">
         <v>267</v>
@@ -2651,8 +2674,8 @@
       <c r="O19" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P19" s="90" t="s">
-        <v>269</v>
+      <c r="P19" s="85" t="s">
+        <v>205</v>
       </c>
       <c r="Q19" s="64" t="s">
         <v>270</v>
@@ -2681,7 +2704,9 @@
       <c r="O20" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P20" s="82"/>
+      <c r="P20" s="82" t="s">
+        <v>217</v>
+      </c>
       <c r="Q20" s="96" t="s">
         <v>302</v>
       </c>
@@ -2708,7 +2733,9 @@
       <c r="O21" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P21" s="82"/>
+      <c r="P21" s="91" t="s">
+        <v>225</v>
+      </c>
       <c r="Q21" s="23" t="s">
         <v>326</v>
       </c>
@@ -2735,16 +2762,16 @@
       <c r="O22" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P22" s="82"/>
+      <c r="P22" s="82" t="s">
+        <v>255</v>
+      </c>
       <c r="Q22" s="23" t="s">
         <v>338</v>
       </c>
       <c r="R22" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="T22" s="82" t="s">
-        <v>340</v>
-      </c>
+      <c r="T22" s="82"/>
     </row>
     <row r="23" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73" t="s">
@@ -2765,7 +2792,7 @@
         <v>179</v>
       </c>
       <c r="P23" s="84" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="72" t="s">
         <v>182</v>
@@ -2796,8 +2823,8 @@
       <c r="O24" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P24" s="82" t="s">
-        <v>222</v>
+      <c r="P24" s="90" t="s">
+        <v>241</v>
       </c>
       <c r="Q24" s="68" t="s">
         <v>223</v>
@@ -2806,7 +2833,9 @@
         <v>224</v>
       </c>
       <c r="S24" s="68"/>
-      <c r="T24" s="82"/>
+      <c r="T24" s="82" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
@@ -2826,8 +2855,8 @@
       <c r="O25" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="P25" s="82" t="s">
-        <v>188</v>
+      <c r="P25" s="92" t="s">
+        <v>272</v>
       </c>
       <c r="Q25" s="68" t="s">
         <v>189</v>
@@ -2857,9 +2886,6 @@
       </c>
       <c r="O26" s="63" t="s">
         <v>204</v>
-      </c>
-      <c r="P26" s="85" t="s">
-        <v>205</v>
       </c>
       <c r="Q26" s="63" t="s">
         <v>206</v>
@@ -2888,9 +2914,6 @@
       <c r="O27" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="P27" s="82" t="s">
-        <v>217</v>
-      </c>
       <c r="Q27" s="68" t="s">
         <v>218</v>
       </c>
@@ -2917,9 +2940,6 @@
       </c>
       <c r="O28" s="68" t="s">
         <v>210</v>
-      </c>
-      <c r="P28" s="91" t="s">
-        <v>225</v>
       </c>
       <c r="Q28" s="72" t="s">
         <v>226</v>
@@ -2944,9 +2964,6 @@
         <v>254</v>
       </c>
       <c r="O29" s="68"/>
-      <c r="P29" s="82" t="s">
-        <v>255</v>
-      </c>
       <c r="Q29" s="68"/>
       <c r="R29" s="77"/>
       <c r="S29" s="68"/>
@@ -3030,9 +3047,6 @@
       <c r="O32" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="P32" s="84" t="s">
-        <v>229</v>
-      </c>
       <c r="Q32" s="63" t="s">
         <v>230</v>
       </c>
@@ -3060,9 +3074,6 @@
       <c r="O33" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="P33" s="90" t="s">
-        <v>241</v>
-      </c>
       <c r="Q33" s="63" t="s">
         <v>242</v>
       </c>
@@ -3090,9 +3101,6 @@
       <c r="O34" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="P34" s="92" t="s">
-        <v>272</v>
-      </c>
       <c r="Q34" s="63" t="s">
         <v>273</v>
       </c>
@@ -3133,183 +3141,183 @@
     </row>
     <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N36" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O36" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q36" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="R36" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="R36" s="22" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M37" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="N37" s="23" t="s">
         <v>350</v>
-      </c>
-      <c r="N37" s="23" t="s">
-        <v>351</v>
       </c>
       <c r="O37" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q37" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="R37" s="22" t="s">
         <v>352</v>
-      </c>
-      <c r="R37" s="22" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>178</v>
       </c>
       <c r="M38" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="N38" s="23" t="s">
         <v>355</v>
-      </c>
-      <c r="N38" s="23" t="s">
-        <v>356</v>
       </c>
       <c r="O38" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P38" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q38" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="Q38" s="23" t="s">
+      <c r="R38" s="22" t="s">
         <v>358</v>
-      </c>
-      <c r="R38" s="22" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C39" s="68" t="s">
         <v>215</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O39" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q39" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M40" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="N40" s="23" t="s">
         <v>367</v>
-      </c>
-      <c r="N40" s="23" t="s">
-        <v>368</v>
       </c>
       <c r="O40" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q40" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="R40" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="R40" s="22" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M41" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="N41" s="23" t="s">
         <v>373</v>
-      </c>
-      <c r="N41" s="23" t="s">
-        <v>374</v>
       </c>
       <c r="O41" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q41" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O42" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P42" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q42" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="Q42" s="23" t="s">
+      <c r="R42" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="R42" s="22" t="s">
+    </row>
+    <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="97" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
-        <v>381</v>
       </c>
       <c r="C43" s="68" t="s">
         <v>228</v>
@@ -3324,18 +3332,18 @@
         <v>235</v>
       </c>
       <c r="P43" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>384</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>385</v>
       </c>
       <c r="C44" s="68" t="s">
         <v>215</v>
@@ -3344,19 +3352,19 @@
         <v>99</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O44" s="68" t="s">
         <v>210</v>
       </c>
       <c r="P44" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q44" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="Q44" s="23" t="s">
+      <c r="R44" s="22" t="s">
         <v>388</v>
-      </c>
-      <c r="R44" s="22" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3371,9 +3379,9 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="P33" r:id="rId1" display="mailto:luuhaidlu@gmail.com"/>
-    <hyperlink ref="P19" r:id="rId2" display="mailto:phamviethai1988@gmail.com"/>
-    <hyperlink ref="P34" r:id="rId3"/>
+    <hyperlink ref="P24" r:id="rId1" display="mailto:luuhaidlu@gmail.com"/>
+    <hyperlink ref="P15" r:id="rId2" display="mailto:phamviethai1988@gmail.com"/>
+    <hyperlink ref="P25" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/hồ sơ_đợt 2/tổng hợp_cv.xlsx
+++ b/hồ sơ_đợt 2/tổng hợp_cv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="236">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -720,6 +720,18 @@
   </si>
   <si>
     <t>a. Linh</t>
+  </si>
+  <si>
+    <t>Ngày pv</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lùi</t>
+  </si>
+  <si>
+    <t>LĐ Phòng</t>
   </si>
 </sst>
 </file>
@@ -3002,16 +3014,17 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="12" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="20.28515625" customWidth="1"/>
+    <col min="3" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="12" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="15" width="20.28515625" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3029,7 +3042,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>11</v>
@@ -3050,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>3</v>
@@ -3086,7 +3099,9 @@
         <v>229</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -3125,7 +3140,9 @@
         <v>229</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -3164,7 +3181,9 @@
         <v>229</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -3244,7 +3263,9 @@
         <v>229</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -3324,7 +3345,9 @@
         <v>229</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -3363,7 +3386,9 @@
         <v>229</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3443,7 +3468,9 @@
         <v>229</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -3482,7 +3509,9 @@
         <v>229</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -3523,7 +3552,9 @@
         <v>229</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -3681,7 +3712,9 @@
         <v>231</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -3718,7 +3751,9 @@
         <v>231</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -3759,7 +3794,9 @@
         <v>231</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -3921,7 +3958,9 @@
         <v>231</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -3960,7 +3999,9 @@
         <v>231</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -3999,7 +4040,9 @@
         <v>231</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -4077,7 +4120,9 @@
         <v>230</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -4194,7 +4239,9 @@
         <v>230</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -4235,7 +4282,9 @@
         <v>230</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -4313,7 +4362,9 @@
         <v>230</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -4354,7 +4405,9 @@
         <v>230</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -4393,7 +4446,9 @@
         <v>230</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -4434,7 +4489,9 @@
         <v>230</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
